--- a/localRepo/2019 Planning calendar.xlsx
+++ b/localRepo/2019 Planning calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2443,9 +2443,6 @@
     <t>Vaishali + Bali, Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohit &amp; Tanvi + </t>
-  </si>
-  <si>
     <t>Short Drive or Day event</t>
   </si>
   <si>
@@ -2612,6 +2609,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mohit &amp; Tanvi + Sangla (near by)</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2850,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2927,6 +2927,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2934,29 +2935,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2999,6 +2977,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -10380,7 +10381,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -10523,12 +10524,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R322" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:R322"/>
-  <sortState ref="A2:R322">
-    <sortCondition ref="F2:F322"/>
-    <sortCondition ref="G2:G322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
-    <sortCondition ref="H2:H322"/>
-    <sortCondition ref="J2:J322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
-  </sortState>
   <tableColumns count="18">
     <tableColumn id="15" name="Group" dataDxfId="22"/>
     <tableColumn id="1" name="Objective" dataDxfId="21"/>
@@ -10547,7 +10542,7 @@
     <tableColumn id="14" name="Location" dataDxfId="8"/>
     <tableColumn id="18" name="Status" dataDxfId="7"/>
     <tableColumn id="16" name="Actual cost" dataDxfId="6"/>
-    <tableColumn id="17" name="Saving" dataDxfId="0">
+    <tableColumn id="17" name="Saving" dataDxfId="5">
       <calculatedColumnFormula>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10563,8 +10558,8 @@
     <tableColumn id="2" name="DESTINATION"/>
     <tableColumn id="3" name="Flight Number"/>
     <tableColumn id="4" name="FREQ"/>
-    <tableColumn id="5" name="DEPARTURE" dataDxfId="5"/>
-    <tableColumn id="6" name="ARRIVAL" dataDxfId="4"/>
+    <tableColumn id="5" name="DEPARTURE" dataDxfId="4"/>
+    <tableColumn id="6" name="ARRIVAL" dataDxfId="3"/>
     <tableColumn id="7" name="AIRCRAFT"/>
     <tableColumn id="8" name="STOPS"/>
   </tableColumns>
@@ -10590,7 +10585,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="P1:AL13"/>
   <sortState ref="P2:AL14">
     <sortCondition ref="S1:S14"/>
@@ -10913,9 +10908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10939,7 +10934,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>20</v>
@@ -10995,7 +10990,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>5</v>
@@ -11036,7 +11031,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>0</v>
@@ -11073,7 +11068,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>0</v>
@@ -11110,10 +11105,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>74</v>
@@ -11151,10 +11146,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>74</v>
@@ -11192,10 +11187,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>74</v>
@@ -11233,10 +11228,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>74</v>
@@ -11274,10 +11269,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>74</v>
@@ -11315,10 +11310,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>74</v>
@@ -11356,10 +11351,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>74</v>
@@ -11397,10 +11392,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>74</v>
@@ -11438,10 +11433,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>74</v>
@@ -11479,10 +11474,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>74</v>
@@ -11520,10 +11515,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>74</v>
@@ -11561,10 +11556,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>74</v>
@@ -11602,7 +11597,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>1</v>
@@ -11643,7 +11638,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>1</v>
@@ -11684,7 +11679,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>1</v>
@@ -11725,7 +11720,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>1</v>
@@ -11766,7 +11761,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>1</v>
@@ -11807,7 +11802,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>1</v>
@@ -11848,7 +11843,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>1</v>
@@ -11889,7 +11884,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>1</v>
@@ -11930,7 +11925,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>1</v>
@@ -11971,7 +11966,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>1</v>
@@ -12012,7 +12007,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>565</v>
@@ -12038,14 +12033,14 @@
         <v>37</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q27" s="22">
         <v>2200</v>
@@ -12057,10 +12052,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>585</v>
@@ -12087,14 +12082,14 @@
         <v>37</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q28" s="22">
         <f>3315+2683</f>
@@ -12107,7 +12102,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>5</v>
@@ -12148,7 +12143,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>0</v>
@@ -12187,7 +12182,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>641</v>
@@ -12226,7 +12221,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>641</v>
@@ -12265,7 +12260,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>641</v>
@@ -12304,7 +12299,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>664</v>
@@ -12343,7 +12338,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>664</v>
@@ -12382,7 +12377,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>4</v>
@@ -12421,7 +12416,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>4</v>
@@ -12460,10 +12455,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>74</v>
@@ -12501,10 +12496,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>74</v>
@@ -12542,10 +12537,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>74</v>
@@ -12583,10 +12578,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>74</v>
@@ -12624,10 +12619,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
@@ -12665,10 +12660,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>74</v>
@@ -12706,7 +12701,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>1</v>
@@ -12747,7 +12742,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>1</v>
@@ -12788,7 +12783,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>1</v>
@@ -12829,7 +12824,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>1</v>
@@ -12870,7 +12865,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>1</v>
@@ -12911,7 +12906,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>1</v>
@@ -12952,7 +12947,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>1</v>
@@ -12993,7 +12988,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>1</v>
@@ -13034,7 +13029,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>1</v>
@@ -13075,7 +13070,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>1</v>
@@ -13116,10 +13111,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>583</v>
@@ -13147,7 +13142,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="23"/>
       <c r="P54" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22">
@@ -13157,13 +13152,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>586</v>
@@ -13183,18 +13178,18 @@
         <v>37</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="22">
@@ -13204,7 +13199,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>579</v>
@@ -13242,10 +13237,10 @@
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="P56" s="23" t="s">
         <v>813</v>
-      </c>
-      <c r="P56" s="23" t="s">
-        <v>814</v>
       </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22">
@@ -13255,7 +13250,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>108</v>
@@ -13292,7 +13287,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>5</v>
@@ -13333,7 +13328,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>0</v>
@@ -13370,7 +13365,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>641</v>
@@ -13409,7 +13404,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>641</v>
@@ -13448,7 +13443,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>641</v>
@@ -13487,7 +13482,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>664</v>
@@ -13526,7 +13521,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>664</v>
@@ -13565,7 +13560,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>4</v>
@@ -13604,7 +13599,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>4</v>
@@ -13643,10 +13638,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>74</v>
@@ -13686,10 +13681,10 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>74</v>
@@ -13729,10 +13724,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>74</v>
@@ -13772,10 +13767,10 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>74</v>
@@ -13817,10 +13812,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>74</v>
@@ -13860,10 +13855,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>74</v>
@@ -13903,10 +13898,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>74</v>
@@ -13948,10 +13943,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>74</v>
@@ -13993,10 +13988,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>74</v>
@@ -14038,10 +14033,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>74</v>
@@ -14083,10 +14078,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>74</v>
@@ -14128,10 +14123,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>74</v>
@@ -14173,10 +14168,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>74</v>
@@ -14216,10 +14211,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>74</v>
@@ -14246,16 +14241,16 @@
         <v>37</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
       <c r="O80" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="P80" s="23" t="s">
         <v>826</v>
-      </c>
-      <c r="P80" s="23" t="s">
-        <v>827</v>
       </c>
       <c r="Q80" s="22">
         <v>1200</v>
@@ -14267,15 +14262,15 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="37" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -14302,23 +14297,25 @@
       <c r="N81" s="22"/>
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
-      <c r="Q81" s="22"/>
+      <c r="Q81" s="22">
+        <v>1000</v>
+      </c>
       <c r="R81" s="22">
         <f>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -14345,15 +14342,17 @@
       <c r="N82" s="22"/>
       <c r="O82" s="23"/>
       <c r="P82" s="23"/>
-      <c r="Q82" s="22"/>
+      <c r="Q82" s="22">
+        <v>4000</v>
+      </c>
       <c r="R82" s="22">
         <f>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</f>
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>1</v>
@@ -14394,7 +14393,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>1</v>
@@ -14435,7 +14434,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>1</v>
@@ -14476,7 +14475,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>1</v>
@@ -14517,7 +14516,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>1</v>
@@ -14558,7 +14557,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>1</v>
@@ -14599,7 +14598,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>1</v>
@@ -14640,7 +14639,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>1</v>
@@ -14681,7 +14680,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>1</v>
@@ -14722,7 +14721,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>1</v>
@@ -14763,13 +14762,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>587</v>
@@ -14793,16 +14792,16 @@
         <v>37</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
       <c r="O93" s="23"/>
       <c r="P93" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q93" s="22">
         <v>5882</v>
@@ -14814,10 +14813,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>583</v>
@@ -14856,7 +14855,7 @@
         <v>782</v>
       </c>
       <c r="O94" s="23" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="P94" s="23"/>
       <c r="Q94" s="22"/>
@@ -14867,7 +14866,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>579</v>
@@ -14902,7 +14901,7 @@
         <v>799</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q95" s="22"/>
       <c r="R95" s="22">
@@ -14912,7 +14911,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>5</v>
@@ -14953,7 +14952,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>0</v>
@@ -14990,7 +14989,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>641</v>
@@ -15029,7 +15028,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>641</v>
@@ -15068,7 +15067,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>664</v>
@@ -15107,7 +15106,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>664</v>
@@ -15146,7 +15145,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>664</v>
@@ -15185,7 +15184,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>664</v>
@@ -15224,10 +15223,10 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>585</v>
@@ -15254,7 +15253,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
@@ -15271,7 +15270,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>565</v>
@@ -15314,7 +15313,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>108</v>
@@ -15351,7 +15350,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>3</v>
@@ -15390,10 +15389,10 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>74</v>
@@ -15408,7 +15407,7 @@
         <v>2019</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>559</v>
@@ -15417,7 +15416,7 @@
         <v>3000</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
@@ -15433,10 +15432,10 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>74</v>
@@ -15451,7 +15450,7 @@
         <v>2019</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>559</v>
@@ -15460,7 +15459,7 @@
         <v>2500</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
@@ -15476,10 +15475,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>74</v>
@@ -15494,7 +15493,7 @@
         <v>2019</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>559</v>
@@ -15503,7 +15502,7 @@
         <v>3000</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
@@ -15519,10 +15518,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>74</v>
@@ -15537,7 +15536,7 @@
         <v>2019</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>559</v>
@@ -15546,7 +15545,7 @@
         <v>3000</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
@@ -15562,7 +15561,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>5</v>
@@ -15603,7 +15602,7 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>592</v>
@@ -15642,7 +15641,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>663</v>
@@ -15681,7 +15680,7 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>641</v>
@@ -15720,7 +15719,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>641</v>
@@ -15759,7 +15758,7 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>641</v>
@@ -15798,7 +15797,7 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>664</v>
@@ -15837,7 +15836,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>664</v>
@@ -15876,7 +15875,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>664</v>
@@ -15915,7 +15914,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>664</v>
@@ -15954,7 +15953,7 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>664</v>
@@ -15993,7 +15992,7 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>664</v>
@@ -16032,7 +16031,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>664</v>
@@ -16071,7 +16070,7 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B125" s="24" t="s">
         <v>3</v>
@@ -16110,10 +16109,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>583</v>
@@ -16149,10 +16148,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>584</v>
@@ -16188,10 +16187,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>588</v>
@@ -16206,7 +16205,7 @@
         <v>2019</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>559</v>
@@ -16231,7 +16230,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>5</v>
@@ -16272,7 +16271,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>641</v>
@@ -16311,7 +16310,7 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>664</v>
@@ -16350,7 +16349,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>664</v>
@@ -16389,7 +16388,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>664</v>
@@ -16428,7 +16427,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>664</v>
@@ -16467,7 +16466,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B135" s="24" t="s">
         <v>664</v>
@@ -16506,7 +16505,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B136" s="24" t="s">
         <v>664</v>
@@ -16545,10 +16544,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>584</v>
@@ -16563,7 +16562,7 @@
         <v>2019</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>560</v>
@@ -16588,10 +16587,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>583</v>
@@ -16621,10 +16620,10 @@
         <v>800</v>
       </c>
       <c r="L138" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="M138" s="22" t="s">
         <v>811</v>
-      </c>
-      <c r="M138" s="22" t="s">
-        <v>812</v>
       </c>
       <c r="N138" s="22" t="s">
         <v>801</v>
@@ -16641,7 +16640,7 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>108</v>
@@ -16678,7 +16677,7 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>5</v>
@@ -16719,7 +16718,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>641</v>
@@ -16758,7 +16757,7 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>664</v>
@@ -16797,7 +16796,7 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>664</v>
@@ -16836,7 +16835,7 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>664</v>
@@ -16875,7 +16874,7 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>664</v>
@@ -16914,7 +16913,7 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B146" s="24" t="s">
         <v>664</v>
@@ -16953,7 +16952,7 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>5</v>
@@ -16994,7 +16993,7 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>641</v>
@@ -17033,7 +17032,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>664</v>
@@ -17072,7 +17071,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B150" s="24" t="s">
         <v>664</v>
@@ -17111,7 +17110,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B151" s="24" t="s">
         <v>664</v>
@@ -17150,7 +17149,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>664</v>
@@ -17189,7 +17188,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>664</v>
@@ -17228,7 +17227,7 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>664</v>
@@ -17267,7 +17266,7 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>664</v>
@@ -17306,10 +17305,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>584</v>
@@ -17345,7 +17344,7 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>108</v>
@@ -17382,7 +17381,7 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>641</v>
@@ -17421,7 +17420,7 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>641</v>
@@ -17460,7 +17459,7 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>641</v>
@@ -17486,7 +17485,7 @@
         <v>87</v>
       </c>
       <c r="K160" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
@@ -17501,7 +17500,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>3</v>
@@ -17540,7 +17539,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>5</v>
@@ -17581,7 +17580,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B163" s="21" t="s">
         <v>592</v>
@@ -17620,7 +17619,7 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>663</v>
@@ -17659,7 +17658,7 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>641</v>
@@ -17698,7 +17697,7 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B166" s="24" t="s">
         <v>641</v>
@@ -17737,7 +17736,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B167" s="24" t="s">
         <v>641</v>
@@ -17776,7 +17775,7 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B168" s="24" t="s">
         <v>664</v>
@@ -17815,7 +17814,7 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>664</v>
@@ -17854,7 +17853,7 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>664</v>
@@ -17893,7 +17892,7 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>664</v>
@@ -17932,7 +17931,7 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>664</v>
@@ -17971,7 +17970,7 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>664</v>
@@ -18010,10 +18009,10 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>95</v>
@@ -18051,10 +18050,10 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>95</v>
@@ -18092,10 +18091,10 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>95</v>
@@ -18133,10 +18132,10 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>95</v>
@@ -18174,10 +18173,10 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>95</v>
@@ -18215,10 +18214,10 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>95</v>
@@ -18256,10 +18255,10 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>584</v>
@@ -18274,7 +18273,7 @@
         <v>2019</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>559</v>
@@ -18299,7 +18298,7 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>5</v>
@@ -18340,7 +18339,7 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B182" s="24" t="s">
         <v>641</v>
@@ -18379,7 +18378,7 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B183" s="24" t="s">
         <v>664</v>
@@ -18418,7 +18417,7 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>664</v>
@@ -18457,7 +18456,7 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B185" s="24" t="s">
         <v>664</v>
@@ -18496,7 +18495,7 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B186" s="24" t="s">
         <v>664</v>
@@ -18535,7 +18534,7 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>664</v>
@@ -18574,7 +18573,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>664</v>
@@ -18613,7 +18612,7 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B189" s="24" t="s">
         <v>664</v>
@@ -18652,7 +18651,7 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>664</v>
@@ -18691,7 +18690,7 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B191" s="24" t="s">
         <v>3</v>
@@ -18730,10 +18729,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>95</v>
@@ -18771,10 +18770,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>95</v>
@@ -18812,10 +18811,10 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>95</v>
@@ -18853,10 +18852,10 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>95</v>
@@ -18894,10 +18893,10 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>95</v>
@@ -18935,10 +18934,10 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>95</v>
@@ -18976,10 +18975,10 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>95</v>
@@ -19017,10 +19016,10 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>95</v>
@@ -19058,10 +19057,10 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>95</v>
@@ -19099,10 +19098,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>95</v>
@@ -19140,7 +19139,7 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>108</v>
@@ -19177,7 +19176,7 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>641</v>
@@ -19216,7 +19215,7 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>664</v>
@@ -19255,7 +19254,7 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>664</v>
@@ -19294,7 +19293,7 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>664</v>
@@ -19333,7 +19332,7 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>664</v>
@@ -19372,7 +19371,7 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>664</v>
@@ -19411,7 +19410,7 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>664</v>
@@ -19450,7 +19449,7 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>664</v>
@@ -19489,7 +19488,7 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>664</v>
@@ -19528,10 +19527,10 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>95</v>
@@ -19571,10 +19570,10 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>95</v>
@@ -19614,10 +19613,10 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>95</v>
@@ -19657,10 +19656,10 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>95</v>
@@ -19700,7 +19699,7 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B216" s="24" t="s">
         <v>641</v>
@@ -19739,7 +19738,7 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B217" s="24" t="s">
         <v>664</v>
@@ -19778,7 +19777,7 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B218" s="24" t="s">
         <v>664</v>
@@ -19817,7 +19816,7 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B219" s="24" t="s">
         <v>664</v>
@@ -19856,7 +19855,7 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B220" s="24" t="s">
         <v>664</v>
@@ -19895,7 +19894,7 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>108</v>
@@ -19932,7 +19931,7 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B222" s="24" t="s">
         <v>641</v>
@@ -19971,7 +19970,7 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B223" s="24" t="s">
         <v>762</v>
@@ -20010,10 +20009,10 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>95</v>
@@ -20053,10 +20052,10 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>95</v>
@@ -20096,10 +20095,10 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>95</v>
@@ -20139,10 +20138,10 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>95</v>
@@ -20182,10 +20181,10 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>95</v>
@@ -20225,10 +20224,10 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>95</v>
@@ -20266,10 +20265,10 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>95</v>
@@ -20307,7 +20306,7 @@
     </row>
     <row r="231" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>592</v>
@@ -20346,7 +20345,7 @@
     </row>
     <row r="232" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B232" s="21" t="s">
         <v>663</v>
@@ -20385,7 +20384,7 @@
     </row>
     <row r="233" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B233" s="24" t="s">
         <v>641</v>
@@ -20424,7 +20423,7 @@
     </row>
     <row r="234" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B234" s="24" t="s">
         <v>664</v>
@@ -20463,7 +20462,7 @@
     </row>
     <row r="235" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B235" s="24" t="s">
         <v>664</v>
@@ -20502,7 +20501,7 @@
     </row>
     <row r="236" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B236" s="24" t="s">
         <v>664</v>
@@ -20541,7 +20540,7 @@
     </row>
     <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B237" s="24" t="s">
         <v>664</v>
@@ -20580,7 +20579,7 @@
     </row>
     <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>664</v>
@@ -20619,7 +20618,7 @@
     </row>
     <row r="239" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>664</v>
@@ -20658,10 +20657,10 @@
     </row>
     <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>583</v>
@@ -20697,10 +20696,10 @@
     </row>
     <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>588</v>
@@ -20740,10 +20739,10 @@
     </row>
     <row r="242" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>95</v>
@@ -20783,10 +20782,10 @@
     </row>
     <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>95</v>
@@ -20824,10 +20823,10 @@
     </row>
     <row r="244" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>95</v>
@@ -20865,10 +20864,10 @@
     </row>
     <row r="245" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>95</v>
@@ -20906,10 +20905,10 @@
     </row>
     <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>95</v>
@@ -20947,7 +20946,7 @@
     </row>
     <row r="247" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B247" s="24" t="s">
         <v>641</v>
@@ -20986,10 +20985,10 @@
     </row>
     <row r="248" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>583</v>
@@ -21039,7 +21038,7 @@
     </row>
     <row r="249" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>108</v>
@@ -21076,7 +21075,7 @@
     </row>
     <row r="250" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B250" s="24" t="s">
         <v>641</v>
@@ -21115,7 +21114,7 @@
     </row>
     <row r="251" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B251" s="24" t="s">
         <v>641</v>
@@ -21154,7 +21153,7 @@
     </row>
     <row r="252" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B252" s="21" t="s">
         <v>108</v>
@@ -21191,7 +21190,7 @@
     </row>
     <row r="253" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B253" s="24" t="s">
         <v>641</v>
@@ -21230,7 +21229,7 @@
     </row>
     <row r="254" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B254" s="24" t="s">
         <v>641</v>
@@ -21269,7 +21268,7 @@
     </row>
     <row r="255" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B255" s="21" t="s">
         <v>592</v>
@@ -21308,7 +21307,7 @@
     </row>
     <row r="256" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B256" s="21" t="s">
         <v>663</v>
@@ -21347,7 +21346,7 @@
     </row>
     <row r="257" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B257" s="24" t="s">
         <v>641</v>
@@ -21386,7 +21385,7 @@
     </row>
     <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B258" s="21" t="s">
         <v>565</v>
@@ -21429,7 +21428,7 @@
     </row>
     <row r="259" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B259" s="24" t="s">
         <v>641</v>
@@ -21468,10 +21467,10 @@
     </row>
     <row r="260" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>588</v>
@@ -21511,7 +21510,7 @@
     </row>
     <row r="261" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B261" s="21" t="s">
         <v>108</v>
@@ -21548,7 +21547,7 @@
     </row>
     <row r="262" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B262" s="24" t="s">
         <v>641</v>
@@ -21587,7 +21586,7 @@
     </row>
     <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B263" s="24" t="s">
         <v>641</v>
@@ -21626,7 +21625,7 @@
     </row>
     <row r="264" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B264" s="21" t="s">
         <v>108</v>
@@ -21663,7 +21662,7 @@
     </row>
     <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B265" s="21" t="s">
         <v>592</v>
@@ -21702,7 +21701,7 @@
     </row>
     <row r="266" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B266" s="21" t="s">
         <v>663</v>
@@ -21741,7 +21740,7 @@
     </row>
     <row r="267" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B267" s="24" t="s">
         <v>641</v>
@@ -21780,7 +21779,7 @@
     </row>
     <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B268" s="24" t="s">
         <v>641</v>
@@ -21819,7 +21818,7 @@
     </row>
     <row r="269" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B269" s="21" t="s">
         <v>108</v>
@@ -21856,7 +21855,7 @@
     </row>
     <row r="270" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B270" s="24" t="s">
         <v>641</v>
@@ -21895,7 +21894,7 @@
     </row>
     <row r="271" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B271" s="24" t="s">
         <v>641</v>
@@ -21934,7 +21933,7 @@
     </row>
     <row r="272" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B272" s="21" t="s">
         <v>108</v>
@@ -21971,7 +21970,7 @@
     </row>
     <row r="273" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B273" s="21" t="s">
         <v>592</v>
@@ -22010,7 +22009,7 @@
     </row>
     <row r="274" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B274" s="21" t="s">
         <v>663</v>
@@ -22049,7 +22048,7 @@
     </row>
     <row r="275" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B275" s="24" t="s">
         <v>641</v>
@@ -22088,7 +22087,7 @@
     </row>
     <row r="276" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B276" s="24" t="s">
         <v>641</v>
@@ -22127,7 +22126,7 @@
     </row>
     <row r="277" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B277" s="21" t="s">
         <v>108</v>
@@ -22164,7 +22163,7 @@
     </row>
     <row r="278" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B278" s="24" t="s">
         <v>641</v>
@@ -22203,7 +22202,7 @@
     </row>
     <row r="279" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B279" s="21" t="s">
         <v>108</v>
@@ -22240,7 +22239,7 @@
     </row>
     <row r="280" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B280" s="21" t="s">
         <v>592</v>
@@ -22279,7 +22278,7 @@
     </row>
     <row r="281" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B281" s="21" t="s">
         <v>663</v>
@@ -22318,10 +22317,10 @@
     </row>
     <row r="282" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>99</v>
@@ -22359,10 +22358,10 @@
     </row>
     <row r="283" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>99</v>
@@ -22400,10 +22399,10 @@
     </row>
     <row r="284" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>99</v>
@@ -22441,10 +22440,10 @@
     </row>
     <row r="285" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>99</v>
@@ -22482,10 +22481,10 @@
     </row>
     <row r="286" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>99</v>
@@ -22523,10 +22522,10 @@
     </row>
     <row r="287" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>99</v>
@@ -22564,7 +22563,7 @@
     </row>
     <row r="288" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B288" s="21" t="s">
         <v>108</v>
@@ -22601,10 +22600,10 @@
     </row>
     <row r="289" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>99</v>
@@ -22642,10 +22641,10 @@
     </row>
     <row r="290" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>99</v>
@@ -22683,7 +22682,7 @@
     </row>
     <row r="291" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>108</v>
@@ -22720,7 +22719,7 @@
     </row>
     <row r="292" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>101</v>
@@ -22761,10 +22760,10 @@
     </row>
     <row r="293" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>585</v>
@@ -22804,10 +22803,10 @@
     </row>
     <row r="294" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>99</v>
@@ -22845,7 +22844,7 @@
     </row>
     <row r="295" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>592</v>
@@ -22884,7 +22883,7 @@
     </row>
     <row r="296" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>663</v>
@@ -22923,7 +22922,7 @@
     </row>
     <row r="297" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>108</v>
@@ -22960,7 +22959,7 @@
     </row>
     <row r="298" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>108</v>
@@ -22997,7 +22996,7 @@
     </row>
     <row r="299" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>108</v>
@@ -23034,7 +23033,7 @@
     </row>
     <row r="300" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>101</v>
@@ -23075,10 +23074,10 @@
     </row>
     <row r="301" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>585</v>
@@ -23118,7 +23117,7 @@
     </row>
     <row r="302" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>592</v>
@@ -23157,7 +23156,7 @@
     </row>
     <row r="303" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>663</v>
@@ -23196,7 +23195,7 @@
     </row>
     <row r="304" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B304" s="21" t="s">
         <v>108</v>
@@ -23233,7 +23232,7 @@
     </row>
     <row r="305" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B305" s="21" t="s">
         <v>108</v>
@@ -23270,7 +23269,7 @@
     </row>
     <row r="306" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B306" s="21" t="s">
         <v>565</v>
@@ -23311,7 +23310,7 @@
     </row>
     <row r="307" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B307" s="21" t="s">
         <v>565</v>
@@ -23344,7 +23343,7 @@
       <c r="N307" s="22"/>
       <c r="O307" s="23"/>
       <c r="P307" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q307" s="22"/>
       <c r="R307" s="22">
@@ -23354,7 +23353,7 @@
     </row>
     <row r="308" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>565</v>
@@ -23387,7 +23386,7 @@
       <c r="N308" s="22"/>
       <c r="O308" s="23"/>
       <c r="P308" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q308" s="22"/>
       <c r="R308" s="22">
@@ -23397,7 +23396,7 @@
     </row>
     <row r="309" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B309" s="21" t="s">
         <v>565</v>
@@ -23430,7 +23429,7 @@
       <c r="N309" s="22"/>
       <c r="O309" s="23"/>
       <c r="P309" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q309" s="22"/>
       <c r="R309" s="22">
@@ -23440,7 +23439,7 @@
     </row>
     <row r="310" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B310" s="21" t="s">
         <v>565</v>
@@ -23481,7 +23480,7 @@
     </row>
     <row r="311" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>565</v>
@@ -23520,7 +23519,7 @@
     </row>
     <row r="312" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>565</v>
@@ -23559,7 +23558,7 @@
     </row>
     <row r="313" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B313" s="21" t="s">
         <v>565</v>
@@ -23598,7 +23597,7 @@
     </row>
     <row r="314" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B314" s="21" t="s">
         <v>579</v>
@@ -23639,7 +23638,7 @@
     </row>
     <row r="315" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B315" s="21" t="s">
         <v>101</v>
@@ -23680,7 +23679,7 @@
     </row>
     <row r="316" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B316" s="21" t="s">
         <v>592</v>
@@ -23719,7 +23718,7 @@
     </row>
     <row r="317" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B317" s="21" t="s">
         <v>663</v>
@@ -23758,7 +23757,7 @@
     </row>
     <row r="318" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B318" s="21" t="s">
         <v>101</v>
@@ -23799,7 +23798,7 @@
     </row>
     <row r="319" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B319" s="21" t="s">
         <v>592</v>
@@ -23838,7 +23837,7 @@
     </row>
     <row r="320" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B320" s="21" t="s">
         <v>592</v>
@@ -23877,7 +23876,7 @@
     </row>
     <row r="321" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B321" s="21" t="s">
         <v>592</v>
@@ -23916,7 +23915,7 @@
     </row>
     <row r="322" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B322" s="25" t="s">
         <v>565</v>
@@ -23967,11 +23966,11 @@
       </c>
       <c r="Q323">
         <f>SUBTOTAL(9,Q$1:Q322)</f>
-        <v>28379</v>
+        <v>33379</v>
       </c>
       <c r="R323">
         <f>SUBTOTAL(9,R$1:R322)</f>
-        <v>1981121</v>
+        <v>1976121</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -24066,7 +24065,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24368,8 +24367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24640,7 +24639,7 @@
       <c r="T2" t="s">
         <v>487</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="38" t="s">
         <v>488</v>
       </c>
       <c r="V2" t="s">
@@ -31298,7 +31297,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B3" t="s">
         <v>587</v>
@@ -31362,19 +31361,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G8" t="s">
+        <v>807</v>
+      </c>
+      <c r="H8" t="s">
         <v>808</v>
-      </c>
-      <c r="H8" t="s">
-        <v>809</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -31437,7 +31436,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G11" s="32">
         <v>1</v>
@@ -31497,7 +31496,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G14" s="32">
         <v>13</v>
@@ -31530,133 +31529,133 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" t="s">
         <v>828</v>
-      </c>
-      <c r="C2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" t="s">
         <v>832</v>
-      </c>
-      <c r="C3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" t="s">
         <v>834</v>
-      </c>
-      <c r="C4" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C5" t="s">
         <v>836</v>
-      </c>
-      <c r="C5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C8" t="s">
         <v>844</v>
-      </c>
-      <c r="C8" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C12" t="s">
         <v>849</v>
-      </c>
-      <c r="C12" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C13" t="s">
         <v>851</v>
-      </c>
-      <c r="C13" t="s">
-        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -31666,10 +31665,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E14"/>
+  <dimension ref="B5:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31679,9 +31678,9 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>590</v>
@@ -31690,7 +31689,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="30" t="s">
         <v>85</v>
       </c>
@@ -31698,7 +31697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
         <v>98</v>
       </c>
@@ -31706,29 +31705,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E9" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D11" s="32">
         <v>10049</v>
@@ -31736,19 +31735,23 @@
       <c r="E11" s="32">
         <v>40951</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>31000 + 4574 + 3039 + 3950 + 1850 + 4200 + 6180 + 4597</f>
+        <v>59390</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" s="32">
         <v>18330</v>
@@ -31757,9 +31760,9 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D14" s="32">
         <v>28379</v>
